--- a/forcaster-ATM/forcaster-ATM-app/src/baf-configuration/20_Predictors.xlsx
+++ b/forcaster-ATM/forcaster-ATM-app/src/baf-configuration/20_Predictors.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="547" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="547" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Dummy Predictors" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,10 @@
     <sheet name="Groups Labels" sheetId="4" r:id="rId4"/>
     <sheet name="hiddenSheet" sheetId="5" state="hidden" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="0" refMode="R1C1"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Formula Predictors'!$A$1:$E$78</definedName>
+  </definedNames>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -107,7 +110,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="912" uniqueCount="422">
   <si>
     <t>Action</t>
   </si>
@@ -673,9 +676,6 @@
     <t>Pasqua</t>
   </si>
   <si>
-    <t xml:space="preserve">AvailabilityMassiva </t>
-  </si>
-  <si>
     <t>LivelloDiServizio</t>
   </si>
   <si>
@@ -700,19 +700,7 @@
     <t>TemperatureMedia_LAG1</t>
   </si>
   <si>
-    <t>Millimetri di pioggia_LAG1</t>
-  </si>
-  <si>
-    <t>Probabilita di precipitazione_LAG1</t>
-  </si>
-  <si>
     <t>TemperatureMedia_MA3</t>
-  </si>
-  <si>
-    <t>Millimetri di pioggia_MA3</t>
-  </si>
-  <si>
-    <t>Probabilita di precipitazione_MA3</t>
   </si>
   <si>
     <t>MOVING_AVERAGE(LibDemandPlanning.getClimaticZoneTS(PuntoDiPrelievo,"TemperatureMedia"),3);</t>
@@ -1127,6 +1115,276 @@
  RETURN PuntoDiPrelievo.PRC_LIVELLO_SERVIZIO;
 }
 RETURN TS("DAILY","");</t>
+  </si>
+  <si>
+    <t>AvailabilityCap</t>
+  </si>
+  <si>
+    <t>Availability e CAP</t>
+  </si>
+  <si>
+    <t>Santo patrono</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Availability Massiva </t>
+  </si>
+  <si>
+    <t>Livello di servizio</t>
+  </si>
+  <si>
+    <t>Temperature Media</t>
+  </si>
+  <si>
+    <t>Probabilita di precipitazione forcast</t>
+  </si>
+  <si>
+    <t>Millimetri di pioggia forcast</t>
+  </si>
+  <si>
+    <t>Temperature media LAG1</t>
+  </si>
+  <si>
+    <t>Millimetri di pioggia LAG1</t>
+  </si>
+  <si>
+    <t>Probabilita di precipitazione LAG1</t>
+  </si>
+  <si>
+    <t>Temperature media MA3</t>
+  </si>
+  <si>
+    <t>Millimetri di pioggia MA3</t>
+  </si>
+  <si>
+    <t>Probabilita di precipitazione MA3</t>
+  </si>
+  <si>
+    <t>Temperature media Forcast</t>
+  </si>
+  <si>
+    <t>Temperature media forcast LAG1</t>
+  </si>
+  <si>
+    <t>Millimetri di pioggia forcast LAG1</t>
+  </si>
+  <si>
+    <t>Probabilita di precipitazione forcast MA3</t>
+  </si>
+  <si>
+    <t>Millimetri di pioggia forcast MA3</t>
+  </si>
+  <si>
+    <t>Temperature media forcast MA3</t>
+  </si>
+  <si>
+    <t>Probabilita di precipitazione forcast LAG1</t>
+  </si>
+  <si>
+    <t>CAP TimeSeries1</t>
+  </si>
+  <si>
+    <t>Temperature media H6</t>
+  </si>
+  <si>
+    <t>Temperature media H12</t>
+  </si>
+  <si>
+    <t>Temperature media H18</t>
+  </si>
+  <si>
+    <t>Millimetri di pioggia H6</t>
+  </si>
+  <si>
+    <t>Millimetri di pioggia H12</t>
+  </si>
+  <si>
+    <t>Millimetri di pioggia H18</t>
+  </si>
+  <si>
+    <t>Probabilita di precipitazione H6</t>
+  </si>
+  <si>
+    <t>Temperature media LAG1 H6</t>
+  </si>
+  <si>
+    <t>Temperature media LAG1 H12</t>
+  </si>
+  <si>
+    <t>Temperature media LAG1 H18</t>
+  </si>
+  <si>
+    <t>Millimetri di pioggia LAG1 H6</t>
+  </si>
+  <si>
+    <t>Millimetri di pioggia LAG1 H12</t>
+  </si>
+  <si>
+    <t>Millimetri di pioggia LAG1 H18</t>
+  </si>
+  <si>
+    <t>Temperature media MA3 H6</t>
+  </si>
+  <si>
+    <t>Temperature media MA3 H12</t>
+  </si>
+  <si>
+    <t>Temperature media MA3 H18</t>
+  </si>
+  <si>
+    <t>Millimetri di pioggia MA3 H6</t>
+  </si>
+  <si>
+    <t>Millimetri di pioggia MA3 H12</t>
+  </si>
+  <si>
+    <t>Millimetri di pioggia MA3 H18</t>
+  </si>
+  <si>
+    <t>Temperature media forecast H6</t>
+  </si>
+  <si>
+    <t>Temperature media forecast H12</t>
+  </si>
+  <si>
+    <t>Temperature media forecast H18</t>
+  </si>
+  <si>
+    <t>Millimetri di pioggia forecast H6</t>
+  </si>
+  <si>
+    <t>Millimetri di pioggia forecast H12</t>
+  </si>
+  <si>
+    <t>Millimetri di pioggia forecast H18</t>
+  </si>
+  <si>
+    <t>Temperature media forecast LAG1 H6</t>
+  </si>
+  <si>
+    <t>Temperature media forecast LAG1 H12</t>
+  </si>
+  <si>
+    <t>Temperature media forecast LAG1 H18</t>
+  </si>
+  <si>
+    <t>Temperature media forecast MA3 H6</t>
+  </si>
+  <si>
+    <t>Temperature media forecast MA3 H12</t>
+  </si>
+  <si>
+    <t>Temperature media forecast MA3 H18</t>
+  </si>
+  <si>
+    <t>ProbabilitaDiPrecipitazione_h12</t>
+  </si>
+  <si>
+    <t>ProbabilitaDiPrecipitazione_h18</t>
+  </si>
+  <si>
+    <t>Probabilita di precipitazione H12</t>
+  </si>
+  <si>
+    <t>Probabilita di precipitazione H18</t>
+  </si>
+  <si>
+    <t>ProbabilitaDiPrecipitazioneForecast_h12</t>
+  </si>
+  <si>
+    <t>ProbabilitaDiPrecipitazioneForecast_h18</t>
+  </si>
+  <si>
+    <t>MillimetriDiPioggiaForecast_LAG1_h6</t>
+  </si>
+  <si>
+    <t>MillimetriDiPioggiaForecast_LAG1_h12</t>
+  </si>
+  <si>
+    <t>MillimetriDiPioggiaForecast_LAG1_h18</t>
+  </si>
+  <si>
+    <t>MillimetriDiPioggiaForecast_MA3_h6</t>
+  </si>
+  <si>
+    <t>MillimetriDiPioggiaForecast_MA3_h12</t>
+  </si>
+  <si>
+    <t>MillimetriDiPioggiaForecast_MA3_h18</t>
+  </si>
+  <si>
+    <t>Millimetri di pioggia forecast LAG1 H6</t>
+  </si>
+  <si>
+    <t>Millimetri di pioggia forecast LAG1 H12</t>
+  </si>
+  <si>
+    <t>Millimetri di pioggia forecast LAG1 H18</t>
+  </si>
+  <si>
+    <t>Millimetri di pioggia forecast MA3 H6</t>
+  </si>
+  <si>
+    <t>Millimetri di pioggia forecast MA3 H12</t>
+  </si>
+  <si>
+    <t>Millimetri di pioggia forecast MA3 H18</t>
+  </si>
+  <si>
+    <t>Probabilita di precipitazione LAG1 H6</t>
+  </si>
+  <si>
+    <t>Probabilita di precipitazione LAG1 H12</t>
+  </si>
+  <si>
+    <t>Probabilita di precipitazione LAG1 H18</t>
+  </si>
+  <si>
+    <t>Probabilita di precipitazione MA3 H6</t>
+  </si>
+  <si>
+    <t>Probabilita di precipitazione MA3 H12</t>
+  </si>
+  <si>
+    <t>Probabilita di precipitazione MA3 H18</t>
+  </si>
+  <si>
+    <t>Probabilita di precipitazione forecast H6</t>
+  </si>
+  <si>
+    <t>Probabilita di precipitazione forecast H12</t>
+  </si>
+  <si>
+    <t>Probabilita di precipitazione forecast H18</t>
+  </si>
+  <si>
+    <t>Probabilita di precipitazione forecast LAG1 H6</t>
+  </si>
+  <si>
+    <t>Probabilita di precipitazione forecast LAG1 H12</t>
+  </si>
+  <si>
+    <t>Probabilita di precipitazione forecast LAG1 H18</t>
+  </si>
+  <si>
+    <t>Probabilita di precipitazione forecast MA3 H6</t>
+  </si>
+  <si>
+    <t>Probabilita di precipitazione forecast MA3 H12</t>
+  </si>
+  <si>
+    <t>Probabilita di precipitazione forecast MA3 H18</t>
+  </si>
+  <si>
+    <t>Fuorilista</t>
+  </si>
+  <si>
+    <t>IF(PuntoDiPrelievo.NUM_FUORILISTA&lt;&gt;NULL){
+ RETURN PuntoDiPrelievo.NUM_FUORILISTA;
+}
+RETURN TS("DAILY","");</t>
+  </si>
+  <si>
+    <t>Fuori Lista</t>
   </si>
 </sst>
 </file>
@@ -2807,10 +3065,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E77"/>
+  <dimension ref="A1:E78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -2844,13 +3102,13 @@
         <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>205</v>
+        <v>333</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="52.5" x14ac:dyDescent="0.3">
@@ -2858,41 +3116,41 @@
         <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="52.5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>189</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
@@ -2900,41 +3158,41 @@
         <v>6</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>196</v>
+      <c r="B7" s="3" t="s">
+        <v>202</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>208</v>
+      <c r="B8" s="2" t="s">
+        <v>195</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
@@ -2942,41 +3200,41 @@
         <v>6</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>199</v>
+      <c r="B10" s="3" t="s">
+        <v>204</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>210</v>
+      <c r="B11" s="2" t="s">
+        <v>196</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
@@ -2984,41 +3242,41 @@
         <v>6</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>213</v>
+      <c r="B13" s="3" t="s">
+        <v>206</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>214</v>
+      <c r="B14" s="2" t="s">
+        <v>208</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
@@ -3026,41 +3284,41 @@
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>216</v>
+      <c r="B16" s="3" t="s">
+        <v>210</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="15.75" x14ac:dyDescent="0.3">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>217</v>
+      <c r="B17" s="2" t="s">
+        <v>211</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.3">
@@ -3068,41 +3326,41 @@
         <v>6</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>219</v>
+      <c r="B19" s="3" t="s">
+        <v>213</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="15.75" x14ac:dyDescent="0.3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>6</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>220</v>
+      <c r="B20" s="2" t="s">
+        <v>214</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15.75" x14ac:dyDescent="0.3">
@@ -3110,55 +3368,55 @@
         <v>6</v>
       </c>
       <c r="B21" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>6</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>6</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:4" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>6</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>205</v>
+      <c r="B24" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="C24" t="s">
+        <v>182</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -3166,13 +3424,13 @@
         <v>6</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -3180,27 +3438,27 @@
         <v>6</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="15.75" x14ac:dyDescent="0.3">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>6</v>
       </c>
-      <c r="B27" s="3" t="s">
-        <v>238</v>
+      <c r="B27" s="2" t="s">
+        <v>229</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="15.75" x14ac:dyDescent="0.3">
@@ -3208,13 +3466,13 @@
         <v>6</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="15.75" x14ac:dyDescent="0.3">
@@ -3222,13 +3480,13 @@
         <v>6</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="15.75" x14ac:dyDescent="0.3">
@@ -3236,13 +3494,13 @@
         <v>6</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="15.75" x14ac:dyDescent="0.3">
@@ -3250,13 +3508,13 @@
         <v>6</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="15.75" x14ac:dyDescent="0.3">
@@ -3264,27 +3522,27 @@
         <v>6</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>244</v>
+        <v>386</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>6</v>
       </c>
-      <c r="B33" s="2" t="s">
-        <v>254</v>
+      <c r="B33" s="3" t="s">
+        <v>387</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
@@ -3292,13 +3550,13 @@
         <v>6</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
@@ -3306,27 +3564,27 @@
         <v>6</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="15.75" x14ac:dyDescent="0.3">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>6</v>
       </c>
-      <c r="B36" s="3" t="s">
-        <v>257</v>
+      <c r="B36" s="2" t="s">
+        <v>251</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="15.75" x14ac:dyDescent="0.3">
@@ -3334,13 +3592,13 @@
         <v>6</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="15.75" x14ac:dyDescent="0.3">
@@ -3348,13 +3606,13 @@
         <v>6</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="15.75" x14ac:dyDescent="0.3">
@@ -3362,13 +3620,13 @@
         <v>6</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="15.75" x14ac:dyDescent="0.3">
@@ -3376,13 +3634,13 @@
         <v>6</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="15.75" x14ac:dyDescent="0.3">
@@ -3390,27 +3648,27 @@
         <v>6</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>6</v>
       </c>
-      <c r="B42" s="2" t="s">
-        <v>272</v>
+      <c r="B42" s="3" t="s">
+        <v>257</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
@@ -3418,13 +3676,13 @@
         <v>6</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
@@ -3432,13 +3690,13 @@
         <v>6</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
@@ -3446,13 +3704,13 @@
         <v>6</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
@@ -3460,13 +3718,13 @@
         <v>6</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
@@ -3474,13 +3732,13 @@
         <v>6</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
@@ -3488,13 +3746,13 @@
         <v>6</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
@@ -3502,13 +3760,13 @@
         <v>6</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
@@ -3516,13 +3774,13 @@
         <v>6</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
@@ -3530,13 +3788,13 @@
         <v>6</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>309</v>
+        <v>266</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
@@ -3544,13 +3802,13 @@
         <v>6</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
@@ -3558,13 +3816,13 @@
         <v>6</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
@@ -3572,13 +3830,13 @@
         <v>6</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
@@ -3586,13 +3844,13 @@
         <v>6</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
@@ -3600,13 +3858,13 @@
         <v>6</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
@@ -3614,13 +3872,13 @@
         <v>6</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
@@ -3628,13 +3886,13 @@
         <v>6</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
@@ -3642,13 +3900,13 @@
         <v>6</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>287</v>
+        <v>390</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
@@ -3656,13 +3914,13 @@
         <v>6</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>288</v>
+        <v>391</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
@@ -3670,13 +3928,13 @@
         <v>6</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
@@ -3684,13 +3942,13 @@
         <v>6</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
@@ -3698,13 +3956,13 @@
         <v>6</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>257</v>
+        <v>285</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
@@ -3712,13 +3970,13 @@
         <v>6</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>258</v>
+        <v>392</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
@@ -3726,13 +3984,13 @@
         <v>6</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>259</v>
+        <v>393</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
@@ -3740,13 +3998,13 @@
         <v>6</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>291</v>
+        <v>394</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
@@ -3754,13 +4012,13 @@
         <v>6</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
@@ -3768,13 +4026,13 @@
         <v>6</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
@@ -3782,13 +4040,13 @@
         <v>6</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
@@ -3796,13 +4054,13 @@
         <v>6</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
@@ -3810,13 +4068,13 @@
         <v>6</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
@@ -3824,13 +4082,13 @@
         <v>6</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>275</v>
+        <v>291</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
@@ -3838,13 +4096,13 @@
         <v>6</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>276</v>
+        <v>395</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
@@ -3852,13 +4110,13 @@
         <v>6</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>277</v>
+        <v>396</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
@@ -3866,13 +4124,13 @@
         <v>6</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>297</v>
+        <v>397</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
@@ -3880,13 +4138,13 @@
         <v>6</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
@@ -3894,13 +4152,27 @@
         <v>6</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>335</v>
+        <v>329</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>6</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>330</v>
       </c>
     </row>
   </sheetData>
@@ -3914,15 +4186,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C81"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="C81" sqref="C81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="38" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="41.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="3" width="38" style="2" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="4" max="16384" width="9.140625" style="2" collapsed="1"/>
   </cols>
   <sheetData>
@@ -3939,222 +4212,882 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>212</v>
+        <v>336</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>188</v>
+        <v>336</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>189</v>
+        <v>337</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>189</v>
+        <v>337</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>191</v>
+        <v>338</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>191</v>
+        <v>338</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>196</v>
+        <v>341</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>196</v>
+        <v>341</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>197</v>
+        <v>342</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>197</v>
+        <v>342</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>198</v>
+        <v>343</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>198</v>
+        <v>343</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>199</v>
+        <v>344</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>199</v>
+        <v>344</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>200</v>
+        <v>345</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>200</v>
+        <v>345</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>201</v>
+        <v>346</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>201</v>
+        <v>346</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>213</v>
+        <v>347</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>213</v>
+        <v>347</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>214</v>
+        <v>340</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>214</v>
+        <v>340</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>215</v>
+        <v>339</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>215</v>
+        <v>339</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>216</v>
+        <v>348</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>216</v>
+        <v>348</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>217</v>
+        <v>349</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>217</v>
+        <v>349</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>218</v>
+        <v>353</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>218</v>
+        <v>353</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>219</v>
+        <v>352</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>219</v>
+        <v>352</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>220</v>
+        <v>351</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>220</v>
+        <v>351</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>221</v>
+        <v>350</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>221</v>
+        <v>350</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A37" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A38" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A39" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A40" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A41" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A78" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A79" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A80" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>421</v>
       </c>
     </row>
   </sheetData>
@@ -4167,14 +5100,17 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30" style="2" customWidth="1" collapsed="1"/>
-    <col min="2" max="16384" width="9.140625" style="2" collapsed="1"/>
+    <col min="1" max="1" width="13.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="3" width="15.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="9.140625" style="2" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -4186,6 +5122,17 @@
       </c>
       <c r="C1" s="1" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>334</v>
       </c>
     </row>
   </sheetData>
